--- a/Domains/ex02_dlvr_dict.xlsx
+++ b/Domains/ex02_dlvr_dict.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="148">
   <si>
     <t xml:space="preserve">BSA04_Domains</t>
   </si>
@@ -124,6 +124,9 @@
     <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
+    <t xml:space="preserve">длина не менее 2х символов</t>
+  </si>
+  <si>
     <t xml:space="preserve">middle_name</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t xml:space="preserve">уникальный (unique)</t>
   </si>
   <si>
+    <t xml:space="preserve">проверка на формат начало с +7 или 8, длина 10 цифр; автоматическая замена 8 на +7, удаление пробелов и “-”</t>
+  </si>
+  <si>
     <t xml:space="preserve">email</t>
   </si>
   <si>
@@ -203,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">по умолчанию активен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">возможно использование ENUM</t>
   </si>
   <si>
     <r>
@@ -969,7 +978,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,6 +1020,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1065,7 +1080,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1111,6 +1126,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1310,7 +1329,7 @@
   <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1415,47 +1434,56 @@
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G9" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>19</v>
@@ -1464,36 +1492,39 @@
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>19</v>
@@ -1502,17 +1533,17 @@
         <v>15</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>14</v>
@@ -1521,17 +1552,17 @@
         <v>15</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>19</v>
@@ -1540,20 +1571,20 @@
         <v>15</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>19</v>
@@ -1562,29 +1593,32 @@
         <v>15</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -1594,10 +1628,10 @@
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>13</v>
@@ -1616,10 +1650,10 @@
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>19</v>
@@ -1628,17 +1662,17 @@
         <v>15</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>19</v>
@@ -1651,13 +1685,13 @@
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -1667,10 +1701,10 @@
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>19</v>
@@ -1683,10 +1717,10 @@
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>19</v>
@@ -1695,36 +1729,36 @@
         <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="I26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>19</v>
@@ -1737,42 +1771,42 @@
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>14</v>
@@ -1781,17 +1815,17 @@
         <v>15</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>19</v>
@@ -1800,20 +1834,20 @@
         <v>15</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>19</v>
@@ -1822,29 +1856,32 @@
         <v>15</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
     </row>
@@ -1854,10 +1891,10 @@
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>13</v>
@@ -1887,47 +1924,56 @@
       <c r="E36" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G36" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>19</v>
@@ -1936,36 +1982,39 @@
         <v>15</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="I40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>14</v>
@@ -1974,17 +2023,17 @@
         <v>15</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>19</v>
@@ -1993,17 +2042,17 @@
         <v>15</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>19</v>
@@ -2012,26 +2061,29 @@
         <v>15</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
     </row>
@@ -2041,10 +2093,10 @@
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>13</v>
@@ -2063,13 +2115,13 @@
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
@@ -2090,47 +2142,56 @@
       <c r="E48" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G48" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
       <c r="B49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
       <c r="B50" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>19</v>
@@ -2139,36 +2200,39 @@
         <v>15</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
       <c r="B52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="I52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>14</v>
@@ -2177,17 +2241,17 @@
         <v>15</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
       <c r="B54" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>19</v>
@@ -2196,17 +2260,17 @@
         <v>15</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
       <c r="B55" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>19</v>
@@ -2215,61 +2279,64 @@
         <v>15</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
       <c r="B56" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
       <c r="B57" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
       <c r="B58" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
     </row>
@@ -2279,10 +2346,10 @@
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>13</v>
@@ -2312,47 +2379,56 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G61" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8"/>
       <c r="B62" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8"/>
       <c r="B63" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8"/>
       <c r="B64" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>19</v>
@@ -2361,36 +2437,39 @@
         <v>15</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8"/>
       <c r="B65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="I65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>14</v>
@@ -2399,17 +2478,17 @@
         <v>15</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8"/>
       <c r="B67" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>19</v>
@@ -2418,17 +2497,17 @@
         <v>15</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8"/>
       <c r="B68" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>19</v>
@@ -2437,26 +2516,26 @@
         <v>15</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8"/>
       <c r="B69" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
     </row>
@@ -2465,11 +2544,11 @@
       <c r="I70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="s">
-        <v>77</v>
+      <c r="A71" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>13</v>
@@ -2486,7 +2565,7 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="9" t="s">
         <v>17</v>
       </c>
@@ -2499,31 +2578,37 @@
       <c r="E72" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G72" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I73" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>19</v>
@@ -2531,15 +2616,18 @@
       <c r="E74" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G74" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>19</v>
@@ -2548,36 +2636,39 @@
         <v>15</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="I76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>14</v>
@@ -2586,17 +2677,17 @@
         <v>15</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>19</v>
@@ -2605,17 +2696,17 @@
         <v>15</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>19</v>
@@ -2624,39 +2715,42 @@
         <v>15</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12"/>
+      <c r="A81" s="13"/>
       <c r="I81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11" t="s">
-        <v>79</v>
+      <c r="A82" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>13</v>
@@ -2673,7 +2767,7 @@
       <c r="I82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="9" t="s">
         <v>17</v>
       </c>
@@ -2686,31 +2780,37 @@
       <c r="E83" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G83" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>19</v>
@@ -2718,15 +2818,18 @@
       <c r="E85" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G85" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>19</v>
@@ -2735,36 +2838,39 @@
         <v>15</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="I87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>14</v>
@@ -2773,17 +2879,17 @@
         <v>15</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>19</v>
@@ -2792,20 +2898,20 @@
         <v>15</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>19</v>
@@ -2814,42 +2920,45 @@
         <v>15</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="I91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12"/>
+      <c r="A92" s="13"/>
       <c r="I92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>13</v>
@@ -2879,47 +2988,56 @@
       <c r="E94" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G94" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8"/>
       <c r="B95" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8"/>
       <c r="B96" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8"/>
       <c r="B97" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>19</v>
@@ -2928,36 +3046,39 @@
         <v>15</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8"/>
       <c r="B98" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="I98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8"/>
       <c r="B99" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>14</v>
@@ -2966,17 +3087,17 @@
         <v>15</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8"/>
       <c r="B100" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>19</v>
@@ -2985,20 +3106,20 @@
         <v>15</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8"/>
       <c r="B101" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>19</v>
@@ -3007,29 +3128,32 @@
         <v>15</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8"/>
       <c r="B102" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
     </row>
@@ -3039,10 +3163,10 @@
     </row>
     <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>13</v>
@@ -3061,10 +3185,10 @@
     <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8"/>
       <c r="B105" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>14</v>
@@ -3073,17 +3197,17 @@
         <v>15</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8"/>
       <c r="B106" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>14</v>
@@ -3092,36 +3216,36 @@
         <v>15</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8"/>
       <c r="B107" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8"/>
       <c r="B108" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>15</v>
@@ -3131,10 +3255,10 @@
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8"/>
       <c r="B109" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>19</v>
@@ -3147,10 +3271,10 @@
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8"/>
       <c r="B110" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>19</v>
@@ -3163,13 +3287,13 @@
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8"/>
       <c r="B111" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>15</v>
@@ -3179,13 +3303,13 @@
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8"/>
       <c r="B112" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>15</v>
@@ -3195,13 +3319,13 @@
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8"/>
       <c r="B113" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>15</v>
@@ -3211,13 +3335,13 @@
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8"/>
       <c r="B114" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>15</v>
@@ -3227,13 +3351,13 @@
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8"/>
       <c r="B115" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>15</v>
@@ -3243,32 +3367,32 @@
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8"/>
       <c r="B116" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8"/>
       <c r="B117" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
     </row>
@@ -3278,10 +3402,10 @@
     </row>
     <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>13</v>
@@ -3300,13 +3424,13 @@
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8"/>
       <c r="B120" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>15</v>
@@ -3316,13 +3440,13 @@
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8"/>
       <c r="B121" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>15</v>
@@ -3332,10 +3456,10 @@
     <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8"/>
       <c r="B122" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>14</v>
@@ -3344,17 +3468,17 @@
         <v>15</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I122" s="9"/>
     </row>
     <row r="123" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>14</v>
@@ -3363,39 +3487,39 @@
         <v>15</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I123" s="9"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8"/>
       <c r="B124" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8"/>
       <c r="B125" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I125" s="9"/>
     </row>
@@ -3405,10 +3529,10 @@
     </row>
     <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>13</v>
@@ -3427,13 +3551,13 @@
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8"/>
       <c r="B128" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>15</v>
@@ -3443,13 +3567,13 @@
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8"/>
       <c r="B129" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>15</v>
@@ -3459,10 +3583,10 @@
     <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8"/>
       <c r="B130" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>14</v>
@@ -3471,49 +3595,49 @@
         <v>15</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I130" s="9"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8"/>
       <c r="B131" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I131" s="9"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8"/>
       <c r="B132" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I132" s="9"/>
     </row>
     <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8"/>
       <c r="B133" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>14</v>
@@ -3522,7 +3646,7 @@
         <v>15</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I133" s="9"/>
     </row>
@@ -3532,10 +3656,10 @@
     </row>
     <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>13</v>
@@ -3554,13 +3678,13 @@
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="8"/>
       <c r="B136" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>15</v>
@@ -3570,19 +3694,22 @@
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8"/>
       <c r="B137" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="I137" s="9"/>
     </row>
@@ -3592,10 +3719,10 @@
     </row>
     <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>13</v>
@@ -3614,45 +3741,45 @@
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8"/>
       <c r="B140" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I140" s="9"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8"/>
       <c r="B141" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I141" s="9"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="8"/>
       <c r="B142" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>15</v>
@@ -3662,10 +3789,10 @@
     <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8"/>
       <c r="B143" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>14</v>
@@ -3674,20 +3801,20 @@
         <v>15</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I143" s="9"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8"/>
       <c r="B144" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>15</v>
@@ -3697,10 +3824,10 @@
     <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8"/>
       <c r="B145" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>14</v>
@@ -3709,20 +3836,20 @@
         <v>15</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8"/>
       <c r="B146" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>15</v>
@@ -3732,16 +3859,16 @@
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8"/>
       <c r="B147" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I147" s="9"/>
     </row>
